--- a/ch17/TaxonomiesMapping.xlsx
+++ b/ch17/TaxonomiesMapping.xlsx
@@ -19,17 +19,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1719785782" val="1210" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1719785782" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1719785782" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1719785782"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719806593" val="1210" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719806593" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719806593" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719806593"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -112,7 +112,7 @@
     <t>The attacker injects malicious data into development datasets to degrade or influence the model's performance. This includes base modeling or fine-tuning or data for attacks on RAG in LLM solutions.</t>
   </si>
   <si>
-    <t>4, 13</t>
+    <t>4, 15</t>
   </si>
   <si>
     <t>Adversarial AI</t>
@@ -217,7 +217,7 @@
     <t>Use of adversarial samples to make the model unusable.</t>
   </si>
   <si>
-    <t>3, 5</t>
+    <t>3, 7</t>
   </si>
   <si>
     <t>T17</t>
@@ -241,73 +241,70 @@
     <t>Manipulation of data used in prompts indirectly – that is, an LLM platform with built-in internet access or RAG.</t>
   </si>
   <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>Data Disclosure</t>
+  </si>
+  <si>
+    <t>Use of adversarial techniques to exploit LLMs to divulge system configuration data (such as system prompts and connection data) or data from connected downstream services, including RAG data stores.</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>Insecure Output</t>
+  </si>
+  <si>
+    <t>Exploitation of unvalidated executable content.</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>Excessive Agency</t>
+  </si>
+  <si>
+    <t>Exploitation of excessive functionality or permissions given to an LLM in a Generative AI solution.</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>Agent Hijacking</t>
+  </si>
+  <si>
+    <t>Exploitation of vulnerabilities in autonomous agents to highlight or influence the behavior of the agents.</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>Training Data Extraction</t>
+  </si>
+  <si>
+    <t>Use of prompt injections to exfiltrate memorized training data. Unlike Model Inversion, the actual training data is extracted without the need for reconstruction.</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>Model Replication</t>
+  </si>
+  <si>
+    <t>The use of LLMs instructs training to create datasets to train a base LLM to replicate the target model.</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>AI Misuse/Abuse</t>
+  </si>
+  <si>
+    <t>Use Generative AI to produce harmful, misleading, unsafe, and unethical content. This includes phishing attacks, malware creation, deepfakes, using an LLM to infer private data, and exploiting LLM overreliance.</t>
+  </si>
+  <si>
     <t>12, 13</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
-    <t>Data Disclosure</t>
-  </si>
-  <si>
-    <t>Use of adversarial techniques to exploit LLMs to divulge system configuration data (such as system prompts and connection data) or data from connected downstream services, including RAG data stores.</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>Insecure Output</t>
-  </si>
-  <si>
-    <t>Exploitation of unvalidated executable content.</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>Excessive Agency</t>
-  </si>
-  <si>
-    <t>Exploitation of excessive functionality or permissions given to an LLM in a Generative AI solution.</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>Agent Hijacking</t>
-  </si>
-  <si>
-    <t>Exploitation of vulnerabilities in autonomous agents to highlight or influence the behavior of the agents.</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>Training Data Extraction</t>
-  </si>
-  <si>
-    <t>Use of prompt injections to exfiltrate memorized training data. Unlike Model Inversion, the actual training data is extracted without the need for reconstruction.</t>
-  </si>
-  <si>
-    <t>T24</t>
-  </si>
-  <si>
-    <t>Model Replication</t>
-  </si>
-  <si>
-    <t>The use of LLMs instructs training to create datasets to train a base LLM to replicate the target model.</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>AI Misuse/Abuse</t>
-  </si>
-  <si>
-    <t>Use Generative AI to produce harmful, misleading, unsafe, and unethical content. This includes phishing attacks, malware creation, deepfakes, using an LLM to infer private data, and exploiting LLM overreliance.</t>
-  </si>
-  <si>
-    <t>11, 13</t>
   </si>
   <si>
     <t>T26</t>
@@ -346,7 +343,7 @@
         <b val="0"/>
         <i/>
       </rPr>
-      <t>13</t>
+      <t>16</t>
     </r>
   </si>
   <si>
@@ -480,7 +477,7 @@
         <b val="0"/>
         <i/>
       </rPr>
-      <t>13</t>
+      <t>16</t>
     </r>
   </si>
   <si>
@@ -832,7 +829,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;£&quot;_-;\-* #,##0.00\ &quot;£&quot;_-;_-* &quot;-&quot;??\ &quot;£&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _£_-;\-* #,##0.00\ _£_-;_-* &quot;-&quot;??\ _£_-;_-@_-"/>
   </numFmts>
-  <fonts count="72">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -840,10 +837,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -855,969 +852,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Courier-PS"/>
-      <family val="1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Keyword" ulstyle="single" kern="1">
-            <pm:latin face="Courier-PS" sz="220" lang="default" weight="bold"/>
-            <pm:cs face="Basic Sans" sz="220" lang="default"/>
-            <pm:ea face="Basic Sans" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Courier-PS"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Courier-PS" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Sans" sz="220" lang="default"/>
-            <pm:ea face="Basic Sans" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Courier-PS"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Courier-PS" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Courier-PS"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Courier-PS" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Courier-PS"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Courier-PS" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cabin SemiBold Italic"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cabin SemiBold Italic" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cabin SemiBold Italic"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cabin SemiBold Italic" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Caladea"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Caladea" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Caladea"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Caladea" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cambria" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cambria" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell Extra Bold"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell Extra Bold" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell Extra Bold"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell Extra Bold" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell Light"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell Light" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell Light"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell Light" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell Thin"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell Thin" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Cantarell Thin"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Cantarell Thin" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Carlito"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Carlito" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Carlito"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Carlito" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Century Schoolbook L"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Century Schoolbook L" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Century Schoolbook L"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Century Schoolbook L" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Chandas"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Chandas" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Chandas"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Chandas" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Chilanka"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Chilanka" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Chilanka"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Chilanka" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="cmex10"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="cmex10" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="cmex10"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="cmex10" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="cmmi10"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="cmmi10" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="cmmi10"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="cmmi10" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial Narrow" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial Narrow" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial Black" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial Black" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Ani"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Ani" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Ani"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Ani" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Abyssinica SIL"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Abyssinica SIL" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Abyssinica SIL"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Abyssinica SIL" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="aakar"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="aakar" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="aakar"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="aakar" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="AnjaliOldLipi"/>
-      <family val="1"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="AnjaliOldLipi" sz="220" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="AnjaliOldLipi"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="AnjaliOldLipi" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="6"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="120" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="6"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="120" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="6"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="120" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="7"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="140" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="7"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="140" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="7"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="140" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="160" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="160" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="160" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="180" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <i/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="180" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="180" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1830,40 +868,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" i="1"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default" i="1"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default" i="1"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1876,10 +884,26 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Italics" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default" i="1"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1892,63 +916,16 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Keyword" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" style="P - Keyword" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719785782" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1960,138 +937,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF018001"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="50" fgClr="0000FF00" bgLvl="50" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A300"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3DFF3D"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5CFF5C"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9EFF9E"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0FFE0"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF007F00"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="100" fgClr="00007F00" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3B3B3"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="100" fgClr="00B3B3B3" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719785782" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1719806593" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="3">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -2107,7 +963,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782"/>
+          <pm:border xmlns:pm="smNativeData" id="1719806593"/>
         </ext>
       </extLst>
     </border>
@@ -2126,11 +982,11 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1719806593">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2150,266 +1006,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782">
-            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719785782"/>
+          <pm:border xmlns:pm="smNativeData" id="1719806593"/>
         </ext>
       </extLst>
     </border>
@@ -2417,49 +1014,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2469,10 +1054,8 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1719785782" count="3">
-        <pm:charStyle name="Normal" fontId="0"/>
-        <pm:charStyle name="P - Keyword" fontId="2" base="Normal" face="1" sz="1" b="1" ulstyle="1" faceEA="1" szEA="1" faceCS="1" szCS="1"/>
-        <pm:charStyle name="P - Italics" fontId="3" base="Normal" face="1" sz="1" b="1" i="1" faceEA="1" szEA="1" faceCS="1" szCS="1"/>
+      <pm:charStyles xmlns:pm="smNativeData" id="1719806593" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
   </extLst>
@@ -2496,7 +1079,7 @@
   <autoFilter ref="A1:B25"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Threat Library" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="MITRE ATLAS Taxonomy"/>
+    <tableColumn id="2" name="MITRE ATLAS Taxonomy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2507,7 +1090,7 @@
   <autoFilter ref="A1:B25"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Threat Library" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="OWASP AI Exchange Taxonomy"/>
+    <tableColumn id="2" name="OWASP AI Exchange Taxonomy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2562,8 +1145,8 @@
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2771,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -2783,22 +1366,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3136,7 +1719,7 @@
         <v>65</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>66</v>
@@ -3155,8 +1738,8 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
+      <c r="E19" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>66</v>
@@ -3164,19 +1747,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>66</v>
@@ -3184,19 +1767,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
         <v>66</v>
@@ -3204,19 +1787,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
         <v>66</v>
@@ -3224,19 +1807,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>66</v>
@@ -3244,19 +1827,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
         <v>66</v>
@@ -3264,19 +1847,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
         <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
         <v>66</v>
@@ -3284,19 +1867,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
       <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F26" t="s">
         <v>66</v>
@@ -3304,89 +1887,89 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" t="s">
         <v>97</v>
       </c>
-      <c r="F27" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="B29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
         <v>97</v>
       </c>
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719785782" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3395,14 +1978,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719785782" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3424,260 +2007,260 @@
   <cols>
     <col min="1" max="1" width="43.342342" customWidth="1"/>
     <col min="2" max="2" width="43.351351" customWidth="1"/>
-    <col min="3" max="3" width="77.963964" customWidth="1" style="14"/>
+    <col min="3" max="3" width="77.963964" customWidth="1" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="13" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="13" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="13" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C25"/>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719785782" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3686,8 +2269,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -3696,7 +2279,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719785782" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3721,250 +2304,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>133</v>
+      <c r="A1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>142</v>
+      <c r="B6" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>153</v>
+      <c r="B12" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>117</v>
+        <v>159</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>139</v>
+        <v>167</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>179</v>
+      <c r="B27" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719785782" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3973,8 +2556,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -3983,7 +2566,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719785782" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4007,59 +2590,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>186</v>
+      <c r="A1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4067,79 +2650,79 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4147,79 +2730,79 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4227,30 +2810,30 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719785782" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4259,8 +2842,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719785782" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -4269,7 +2852,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719785782" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/ch17/TaxonomiesMapping.xlsx
+++ b/ch17/TaxonomiesMapping.xlsx
@@ -19,10 +19,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1719806593" val="1210" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1719806593" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1719806593" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1719806593"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719796191" val="1210" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719796191" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719796191" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719796191"/>
     </ext>
   </extLst>
 </workbook>
@@ -837,7 +837,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719796191" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -852,7 +852,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719796191" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -868,7 +868,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719796191" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" i="1"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" i="1"/>
@@ -884,7 +884,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719796191" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
@@ -900,7 +900,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719796191" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -916,7 +916,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719806593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719796191" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -925,7 +925,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,13 +941,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719806593" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1719796191" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719796191" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -963,7 +974,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719806593"/>
+          <pm:border xmlns:pm="smNativeData" id="1719796191"/>
         </ext>
       </extLst>
     </border>
@@ -982,7 +993,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719806593">
+          <pm:border xmlns:pm="smNativeData" id="1719796191">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1006,7 +1017,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719806593"/>
+          <pm:border xmlns:pm="smNativeData" id="1719796191"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719796191"/>
         </ext>
       </extLst>
     </border>
@@ -1054,7 +1084,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1719806593" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1719796191" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1355,7 +1385,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -1969,7 +1999,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719796191" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1978,14 +2008,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719796191" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2260,7 +2290,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719796191" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2269,8 +2299,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2279,7 +2309,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719796191" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2547,7 +2577,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719796191" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2556,8 +2586,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2566,7 +2596,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719796191" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2833,7 +2863,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719806593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719796191" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2842,8 +2872,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719806593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719796191" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2852,7 +2882,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719806593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719796191" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
